--- a/reporting_system2.xlsx
+++ b/reporting_system2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i321649/Documents/rs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i321649/myapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BB868-83B4-ED45-8505-44F4EAE9C9DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF51307-744A-4F4C-B0F5-F7754421ECFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="2560" windowWidth="26720" windowHeight="15560" xr2:uid="{0C4D221A-6B40-3744-B0BF-B6969537AB62}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ds_comments">Sheet1!$B$7</definedName>
     <definedName name="dsAdjustContent_comments">Sheet1!$C$7</definedName>
     <definedName name="dsAdjustContent_expense">Sheet1!$C$4</definedName>
     <definedName name="dsAdjustContent_income">Sheet1!$C$5</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Comments</t>
   </si>
@@ -60,9 +59,6 @@
   </si>
   <si>
     <t>Sum</t>
-  </si>
-  <si>
-    <t>very good</t>
   </si>
   <si>
     <t>total</t>
@@ -503,7 +499,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,58 +536,50 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <f>dsContent_expense+dsAdjustContent_expense</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>310</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <f>dsContent_income+dsAdjustContent_income</f>
-        <v>310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>210</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <f>dsContent_profit+dsAdjustContent_profit</f>
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <f>SUM(D4:D6)</f>
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
